--- a/biology/Histoire de la zoologie et de la botanique/Charles_Swinhoe/Charles_Swinhoe.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Swinhoe/Charles_Swinhoe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colonel Charles Swinhoe, né le 29 août 1838[2] à Calcutta et mort le 2 décembre 1923, est un naturaliste britannique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colonel Charles Swinhoe, né le 29 août 1838 à Calcutta et mort le 2 décembre 1923, est un naturaliste britannique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Colonel dans l'armée britannique en Inde, il participe à la fondation de la Bombay Natural History Society. Il est le frère du fameux naturaliste Robert Swinhoe (1836-1877).
 Il explore Kandahar avec Lord Roberts en 1880 et y collecte 341 oiseaux. Il fait paraître de nombreux articles dans The Ibis sur les oiseaux du sud de l'Afghanistan et du centre de l'Inde. Il donne 300 peaux de chacun de ces pays au British Museum.
